--- a/Data/ROY Data/all_roy_candidates_1990_2020.xlsx
+++ b/Data/ROY Data/all_roy_candidates_1990_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="290">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -106,9 +106,6 @@
     <t>6T</t>
   </si>
   <si>
-    <t>10T</t>
-  </si>
-  <si>
     <t>1T</t>
   </si>
   <si>
@@ -598,46 +595,10 @@
     <t>Billy Owens</t>
   </si>
   <si>
-    <t>Charles Barkley</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Patrick Ewing</t>
-  </si>
-  <si>
-    <t>Dominique Wilkins</t>
-  </si>
-  <si>
-    <t>David Robinson</t>
-  </si>
-  <si>
     <t>Shaquille O'Neal</t>
   </si>
   <si>
-    <t>Karl Malone</t>
-  </si>
-  <si>
-    <t>Mark Price</t>
-  </si>
-  <si>
-    <t>Brad Daugherty</t>
-  </si>
-  <si>
-    <t>Clyde Drexler</t>
-  </si>
-  <si>
-    <t>Joe Dumars</t>
-  </si>
-  <si>
-    <t>Shawn Kemp</t>
-  </si>
-  <si>
-    <t>John Stockton</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Chris Webber</t>
@@ -649,19 +610,22 @@
     <t>Jamal Mashburn</t>
   </si>
   <si>
-    <t>Scottie Pippen</t>
-  </si>
-  <si>
-    <t>Gary Payton</t>
-  </si>
-  <si>
-    <t>Dennis Rodman</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Jason Kidd</t>
   </si>
   <si>
-    <t>Cedric Ceballos</t>
+    <t>Glenn Robinson</t>
+  </si>
+  <si>
+    <t>Eddie Jones</t>
+  </si>
+  <si>
+    <t>Brian Grant</t>
+  </si>
+  <si>
+    <t>Juwan Howard</t>
   </si>
   <si>
     <t>Damon Stoudamire</t>
@@ -829,6 +793,9 @@
     <t>CHH</t>
   </si>
   <si>
+    <t>WSB</t>
+  </si>
+  <si>
     <t>VAN</t>
   </si>
   <si>
@@ -889,9 +856,6 @@
     <t>2018-19</t>
   </si>
   <si>
-    <t>2019-20</t>
-  </si>
-  <si>
     <t>1990-91</t>
   </si>
   <si>
@@ -917,6 +881,9 @@
   </si>
   <si>
     <t>1998-99</t>
+  </si>
+  <si>
+    <t>1999-00</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W215"/>
+  <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1359,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -1416,7 +1383,7 @@
         <v>0.106</v>
       </c>
       <c r="W2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1430,13 +1397,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -1487,7 +1454,7 @@
         <v>0.044</v>
       </c>
       <c r="W3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1501,13 +1468,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1558,7 +1525,7 @@
         <v>0.089</v>
       </c>
       <c r="W4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1572,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1629,7 +1596,7 @@
         <v>0.068</v>
       </c>
       <c r="W5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1643,13 +1610,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1700,7 +1667,7 @@
         <v>0.096</v>
       </c>
       <c r="W6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1714,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G7">
         <v>117</v>
@@ -1771,7 +1738,7 @@
         <v>0.121</v>
       </c>
       <c r="W7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1785,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1842,7 +1809,7 @@
         <v>0.117</v>
       </c>
       <c r="W8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1856,13 +1823,13 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1913,7 +1880,7 @@
         <v>0.164</v>
       </c>
       <c r="W9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1927,13 +1894,13 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1984,7 +1951,7 @@
         <v>0.052</v>
       </c>
       <c r="W10" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1998,13 +1965,13 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2055,7 +2022,7 @@
         <v>0.033</v>
       </c>
       <c r="W11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2069,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G12">
         <v>59</v>
@@ -2126,7 +2093,7 @@
         <v>0.116</v>
       </c>
       <c r="W12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2140,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G13">
         <v>45</v>
@@ -2197,7 +2164,7 @@
         <v>0.176</v>
       </c>
       <c r="W13" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2211,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -2268,7 +2235,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="W14" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2282,13 +2249,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2339,7 +2306,7 @@
         <v>0.141</v>
       </c>
       <c r="W15" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2353,13 +2320,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2410,7 +2377,7 @@
         <v>0.043</v>
       </c>
       <c r="W16" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2424,13 +2391,13 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2481,7 +2448,7 @@
         <v>0.107</v>
       </c>
       <c r="W17" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2495,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2552,7 +2519,7 @@
         <v>0.139</v>
       </c>
       <c r="W18" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2566,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G19">
         <v>78</v>
@@ -2623,7 +2590,7 @@
         <v>0.078</v>
       </c>
       <c r="W19" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2637,13 +2604,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -2694,7 +2661,7 @@
         <v>0.098</v>
       </c>
       <c r="W20" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2708,13 +2675,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2765,7 +2732,7 @@
         <v>0.103</v>
       </c>
       <c r="W21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2779,13 +2746,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2836,7 +2803,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="W22" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2850,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2907,7 +2874,7 @@
         <v>0.119</v>
       </c>
       <c r="W23" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2921,13 +2888,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2978,7 +2945,7 @@
         <v>0.146</v>
       </c>
       <c r="W24" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2992,13 +2959,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G25">
         <v>77</v>
@@ -3049,7 +3016,7 @@
         <v>0.074</v>
       </c>
       <c r="W25" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3063,13 +3030,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G26">
         <v>43</v>
@@ -3120,7 +3087,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3134,13 +3101,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -3191,7 +3158,7 @@
         <v>0.131</v>
       </c>
       <c r="W27" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3205,13 +3172,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3262,7 +3229,7 @@
         <v>0.118</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3276,13 +3243,13 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3333,7 +3300,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3347,13 +3314,13 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3404,7 +3371,7 @@
         <v>0.006</v>
       </c>
       <c r="W30" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3418,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G31">
         <v>124</v>
@@ -3475,7 +3442,7 @@
         <v>0.178</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3489,13 +3456,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3546,7 +3513,7 @@
         <v>0.079</v>
       </c>
       <c r="W32" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3560,13 +3527,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3617,7 +3584,7 @@
         <v>0.113</v>
       </c>
       <c r="W33" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3631,13 +3598,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3688,7 +3655,7 @@
         <v>0.051</v>
       </c>
       <c r="W34" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3702,13 +3669,13 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3759,7 +3726,7 @@
         <v>0.108</v>
       </c>
       <c r="W35" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3773,13 +3740,13 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3830,7 +3797,7 @@
         <v>0.059</v>
       </c>
       <c r="W36" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3844,13 +3811,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3901,7 +3868,7 @@
         <v>0.139</v>
       </c>
       <c r="W37" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3915,13 +3882,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3972,7 +3939,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="W38" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3986,13 +3953,13 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4043,7 +4010,7 @@
         <v>0.108</v>
       </c>
       <c r="W39" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4057,13 +4024,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G40">
         <v>127</v>
@@ -4114,7 +4081,7 @@
         <v>0.114</v>
       </c>
       <c r="W40" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4128,13 +4095,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4185,7 +4152,7 @@
         <v>0.057</v>
       </c>
       <c r="W41" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4199,13 +4166,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4256,7 +4223,7 @@
         <v>0.011</v>
       </c>
       <c r="W42" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4270,13 +4237,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4327,7 +4294,7 @@
         <v>-0.03</v>
       </c>
       <c r="W43" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4341,13 +4308,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4398,7 +4365,7 @@
         <v>0.058</v>
       </c>
       <c r="W44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4412,13 +4379,13 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4469,7 +4436,7 @@
         <v>0.153</v>
       </c>
       <c r="W45" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4483,13 +4450,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4540,7 +4507,7 @@
         <v>0.118</v>
       </c>
       <c r="W46" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4554,13 +4521,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4611,7 +4578,7 @@
         <v>0.074</v>
       </c>
       <c r="W47" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4625,13 +4592,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4682,7 +4649,7 @@
         <v>0.11</v>
       </c>
       <c r="W48" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4696,13 +4663,13 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49">
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4753,7 +4720,7 @@
         <v>0.125</v>
       </c>
       <c r="W49" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4767,13 +4734,13 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4824,7 +4791,7 @@
         <v>0.121</v>
       </c>
       <c r="W50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4838,13 +4805,13 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4895,7 +4862,7 @@
         <v>0.064</v>
       </c>
       <c r="W51" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4909,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G52">
         <v>90</v>
@@ -4966,7 +4933,7 @@
         <v>0.04</v>
       </c>
       <c r="W52" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4980,13 +4947,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -5037,7 +5004,7 @@
         <v>0.103</v>
       </c>
       <c r="W53" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5051,13 +5018,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -5108,7 +5075,7 @@
         <v>0.154</v>
       </c>
       <c r="W54" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5122,13 +5089,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5179,7 +5146,7 @@
         <v>0.025</v>
       </c>
       <c r="W55" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5193,13 +5160,13 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5250,7 +5217,7 @@
         <v>0.126</v>
       </c>
       <c r="W56" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5264,13 +5231,13 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5321,7 +5288,7 @@
         <v>0.031</v>
       </c>
       <c r="W57" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5335,13 +5302,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5392,7 +5359,7 @@
         <v>0.14</v>
       </c>
       <c r="W58" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5406,13 +5373,13 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5463,7 +5430,7 @@
         <v>0.038</v>
       </c>
       <c r="W59" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5477,13 +5444,13 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5534,7 +5501,7 @@
         <v>0.251</v>
       </c>
       <c r="W60" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5548,13 +5515,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G61">
         <v>111</v>
@@ -5605,7 +5572,7 @@
         <v>0.078</v>
       </c>
       <c r="W61" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5619,13 +5586,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -5676,7 +5643,7 @@
         <v>0.052</v>
       </c>
       <c r="W62" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5690,13 +5657,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5747,7 +5714,7 @@
         <v>0.112</v>
       </c>
       <c r="W63" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5761,13 +5728,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5818,7 +5785,7 @@
         <v>0.035</v>
       </c>
       <c r="W64" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5832,13 +5799,13 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5889,7 +5856,7 @@
         <v>0.082</v>
       </c>
       <c r="W65" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5903,13 +5870,13 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5960,7 +5927,7 @@
         <v>0.124</v>
       </c>
       <c r="W66" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5974,13 +5941,13 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6031,7 +5998,7 @@
         <v>0.081</v>
       </c>
       <c r="W67" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6045,13 +6012,13 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6102,7 +6069,7 @@
         <v>0.121</v>
       </c>
       <c r="W68" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6116,13 +6083,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69">
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6173,7 +6140,7 @@
         <v>0.147</v>
       </c>
       <c r="W69" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6187,13 +6154,13 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6244,7 +6211,7 @@
         <v>0.083</v>
       </c>
       <c r="W70" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6258,13 +6225,13 @@
         <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6315,7 +6282,7 @@
         <v>0.095</v>
       </c>
       <c r="W71" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6329,13 +6296,13 @@
         <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6386,7 +6353,7 @@
         <v>0.108</v>
       </c>
       <c r="W72" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6400,13 +6367,13 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73">
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6457,7 +6424,7 @@
         <v>0.123</v>
       </c>
       <c r="W73" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6471,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G74">
         <v>67</v>
@@ -6528,7 +6495,7 @@
         <v>0.097</v>
       </c>
       <c r="W74" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6542,13 +6509,13 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G75">
         <v>43</v>
@@ -6599,7 +6566,7 @@
         <v>0.077</v>
       </c>
       <c r="W75" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6613,13 +6580,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76">
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G76">
         <v>12</v>
@@ -6670,7 +6637,7 @@
         <v>0.075</v>
       </c>
       <c r="W76" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6684,13 +6651,13 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6741,7 +6708,7 @@
         <v>0.067</v>
       </c>
       <c r="W77" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6755,13 +6722,13 @@
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6812,7 +6779,7 @@
         <v>0.002</v>
       </c>
       <c r="W78" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6826,13 +6793,13 @@
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79">
         <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6880,7 +6847,7 @@
         <v>0.103</v>
       </c>
       <c r="W79" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6894,13 +6861,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80">
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G80">
         <v>118</v>
@@ -6951,7 +6918,7 @@
         <v>0.152</v>
       </c>
       <c r="W80" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6965,13 +6932,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81">
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7022,7 +6989,7 @@
         <v>0.041</v>
       </c>
       <c r="W81" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7036,13 +7003,13 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82">
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7093,7 +7060,7 @@
         <v>0.022</v>
       </c>
       <c r="W82" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7107,13 +7074,13 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7164,7 +7131,7 @@
         <v>0.1</v>
       </c>
       <c r="W83" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7178,13 +7145,13 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84">
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7235,7 +7202,7 @@
         <v>0.099</v>
       </c>
       <c r="W84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7249,13 +7216,13 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85">
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7306,7 +7273,7 @@
         <v>0.143</v>
       </c>
       <c r="W85" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7320,13 +7287,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86">
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G86">
         <v>117</v>
@@ -7377,7 +7344,7 @@
         <v>0.125</v>
       </c>
       <c r="W86" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7391,13 +7358,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87">
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7448,7 +7415,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W87" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7462,13 +7429,13 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88">
         <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -7516,7 +7483,7 @@
         <v>0.212</v>
       </c>
       <c r="W88" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7530,13 +7497,13 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E89">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7587,7 +7554,7 @@
         <v>0.171</v>
       </c>
       <c r="W89" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7601,13 +7568,13 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -7658,7 +7625,7 @@
         <v>0.068</v>
       </c>
       <c r="W90" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7672,13 +7639,13 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91">
         <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7729,7 +7696,7 @@
         <v>0.05</v>
       </c>
       <c r="W91" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7743,13 +7710,13 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92">
         <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7800,7 +7767,7 @@
         <v>0.124</v>
       </c>
       <c r="W92" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7814,13 +7781,13 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7871,7 +7838,7 @@
         <v>0.029</v>
       </c>
       <c r="W93" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7885,13 +7852,13 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -7942,7 +7909,7 @@
         <v>0.09</v>
       </c>
       <c r="W94" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7956,13 +7923,13 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E95">
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8013,7 +7980,7 @@
         <v>0.022</v>
       </c>
       <c r="W95" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8027,13 +7994,13 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96">
         <v>21</v>
       </c>
       <c r="F96" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8084,7 +8051,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="W96" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8098,13 +8065,13 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97">
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8155,7 +8122,7 @@
         <v>-0.105</v>
       </c>
       <c r="W97" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8169,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E98">
         <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G98">
         <v>121</v>
@@ -8226,7 +8193,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="W98" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8240,13 +8207,13 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E99">
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8297,7 +8264,7 @@
         <v>0.159</v>
       </c>
       <c r="W99" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8311,13 +8278,13 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -8368,7 +8335,7 @@
         <v>0.082</v>
       </c>
       <c r="W100" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8382,13 +8349,13 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E101">
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -8439,7 +8406,7 @@
         <v>0.172</v>
       </c>
       <c r="W101" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8453,13 +8420,13 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102">
         <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -8510,7 +8477,7 @@
         <v>0.026</v>
       </c>
       <c r="W102" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8524,13 +8491,13 @@
         <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103">
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -8581,7 +8548,7 @@
         <v>0.065</v>
       </c>
       <c r="W103" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8595,13 +8562,13 @@
         <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E104">
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -8652,7 +8619,7 @@
         <v>0.117</v>
       </c>
       <c r="W104" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8666,13 +8633,13 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E105">
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -8723,7 +8690,7 @@
         <v>0.051</v>
       </c>
       <c r="W105" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8737,13 +8704,13 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E106">
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -8791,7 +8758,7 @@
         <v>0.127</v>
       </c>
       <c r="W106" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8805,13 +8772,13 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E107">
         <v>21</v>
       </c>
       <c r="F107" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8862,7 +8829,7 @@
         <v>0.091</v>
       </c>
       <c r="W107" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8876,13 +8843,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E108">
         <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G108">
         <v>104</v>
@@ -8933,7 +8900,7 @@
         <v>0.026</v>
       </c>
       <c r="W108" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8947,13 +8914,13 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E109">
         <v>21</v>
       </c>
       <c r="F109" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G109">
         <v>16</v>
@@ -9004,7 +8971,7 @@
         <v>0.026</v>
       </c>
       <c r="W109" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9018,13 +8985,13 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E110">
         <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9075,7 +9042,7 @@
         <v>0.02</v>
       </c>
       <c r="W110" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9089,13 +9056,13 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E111">
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -9146,7 +9113,7 @@
         <v>0.176</v>
       </c>
       <c r="W111" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9160,13 +9127,13 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E112">
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -9217,7 +9184,7 @@
         <v>0.08</v>
       </c>
       <c r="W112" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9231,13 +9198,13 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E113">
         <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -9288,7 +9255,7 @@
         <v>0.129</v>
       </c>
       <c r="W113" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9302,13 +9269,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E114">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -9356,7 +9323,7 @@
         <v>0.114</v>
       </c>
       <c r="W114" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9370,13 +9337,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E115">
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -9427,7 +9394,7 @@
         <v>0.031</v>
       </c>
       <c r="W115" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9441,13 +9408,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E116">
         <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -9498,7 +9465,7 @@
         <v>0.062</v>
       </c>
       <c r="W116" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9512,13 +9479,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E117">
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G117">
         <v>110</v>
@@ -9569,7 +9536,7 @@
         <v>0.034</v>
       </c>
       <c r="W117" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9583,13 +9550,13 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E118">
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G118">
         <v>14</v>
@@ -9640,7 +9607,7 @@
         <v>0.165</v>
       </c>
       <c r="W118" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9654,13 +9621,13 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E119">
         <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -9708,7 +9675,7 @@
         <v>0.083</v>
       </c>
       <c r="W119" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9722,13 +9689,13 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E120">
         <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -9779,7 +9746,7 @@
         <v>0.044</v>
       </c>
       <c r="W120" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9793,13 +9760,13 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121">
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -9850,7 +9817,7 @@
         <v>0.077</v>
       </c>
       <c r="W121" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9864,13 +9831,13 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E122">
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -9921,7 +9888,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="W122" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9935,13 +9902,13 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E123">
         <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -9992,7 +9959,7 @@
         <v>0.078</v>
       </c>
       <c r="W123" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10006,13 +9973,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E124">
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G124">
         <v>130</v>
@@ -10063,7 +10030,7 @@
         <v>0.151</v>
       </c>
       <c r="W124" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10077,13 +10044,13 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125">
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -10134,7 +10101,7 @@
         <v>0.102</v>
       </c>
       <c r="W125" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10148,13 +10115,13 @@
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126">
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -10205,7 +10172,7 @@
         <v>0.185</v>
       </c>
       <c r="W126" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10219,13 +10186,13 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E127">
         <v>19</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -10276,7 +10243,7 @@
         <v>0.043</v>
       </c>
       <c r="W127" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10290,13 +10257,13 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E128">
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -10347,7 +10314,7 @@
         <v>0.037</v>
       </c>
       <c r="W128" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10361,13 +10328,13 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E129">
         <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -10418,7 +10385,7 @@
         <v>0.054</v>
       </c>
       <c r="W129" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10432,13 +10399,13 @@
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E130">
         <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -10489,7 +10456,7 @@
         <v>-0.049</v>
       </c>
       <c r="W130" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10503,13 +10470,13 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E131">
         <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10560,7 +10527,7 @@
         <v>0.109</v>
       </c>
       <c r="W131" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10574,13 +10541,13 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E132">
         <v>19</v>
       </c>
       <c r="F132" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -10631,7 +10598,7 @@
         <v>0.001</v>
       </c>
       <c r="W132" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10645,13 +10612,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E133">
         <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G133">
         <v>64</v>
@@ -10702,7 +10669,7 @@
         <v>0.1</v>
       </c>
       <c r="W133" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10716,13 +10683,13 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E134">
         <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G134">
         <v>13</v>
@@ -10773,7 +10740,7 @@
         <v>0.023</v>
       </c>
       <c r="W134" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10787,13 +10754,13 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E135">
         <v>22</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G135">
         <v>23</v>
@@ -10844,7 +10811,7 @@
         <v>0.117</v>
       </c>
       <c r="W135" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10858,13 +10825,13 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E136">
         <v>24</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -10915,7 +10882,7 @@
         <v>0.032</v>
       </c>
       <c r="W136" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10929,13 +10896,13 @@
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E137">
         <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -10986,7 +10953,7 @@
         <v>0.123</v>
       </c>
       <c r="W137" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11000,13 +10967,13 @@
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E138">
         <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -11057,7 +11024,7 @@
         <v>0.037</v>
       </c>
       <c r="W138" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11071,13 +11038,13 @@
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E139">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -11128,7 +11095,7 @@
         <v>0.05</v>
       </c>
       <c r="W139" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11142,13 +11109,13 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E140">
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -11199,7 +11166,7 @@
         <v>0.053</v>
       </c>
       <c r="W140" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11213,13 +11180,13 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E141">
         <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -11270,7 +11237,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="W141" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11284,13 +11251,13 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E142">
         <v>25</v>
       </c>
       <c r="F142" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -11341,7 +11308,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="W142" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11355,13 +11322,13 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E143">
         <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G143">
         <v>90</v>
@@ -11412,7 +11379,7 @@
         <v>0.162</v>
       </c>
       <c r="W143" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11426,13 +11393,13 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E144">
         <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G144">
         <v>11</v>
@@ -11483,7 +11450,7 @@
         <v>0.095</v>
       </c>
       <c r="W144" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11497,13 +11464,13 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E145">
         <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -11554,7 +11521,7 @@
         <v>0.139</v>
       </c>
       <c r="W145" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11568,13 +11535,13 @@
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E146">
         <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -11625,7 +11592,7 @@
         <v>0.077</v>
       </c>
       <c r="W146" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11639,13 +11606,13 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E147">
         <v>20</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -11696,7 +11663,7 @@
         <v>-0.017</v>
       </c>
       <c r="W147" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11710,13 +11677,13 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E148">
         <v>19</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G148">
         <v>98</v>
@@ -11767,7 +11734,7 @@
         <v>0.101</v>
       </c>
       <c r="W148" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11781,13 +11748,13 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E149">
         <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -11838,7 +11805,7 @@
         <v>0.062</v>
       </c>
       <c r="W149" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11852,13 +11819,13 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E150">
         <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -11909,7 +11876,7 @@
         <v>0.128</v>
       </c>
       <c r="W150" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11923,13 +11890,13 @@
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E151">
         <v>19</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -11980,7 +11947,7 @@
         <v>0.105</v>
       </c>
       <c r="W151" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11994,13 +11961,13 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E152">
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -12051,7 +12018,7 @@
         <v>-0.011</v>
       </c>
       <c r="W152" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12065,13 +12032,13 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -12122,7 +12089,7 @@
         <v>0.074</v>
       </c>
       <c r="W153" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12136,13 +12103,13 @@
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E154">
         <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -12193,7 +12160,7 @@
         <v>0.11</v>
       </c>
       <c r="W154" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12207,13 +12174,13 @@
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E155">
         <v>20</v>
       </c>
       <c r="F155" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -12264,7 +12231,7 @@
         <v>0.034</v>
       </c>
       <c r="W155" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12278,13 +12245,13 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E156">
         <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -12332,7 +12299,7 @@
         <v>0.217</v>
       </c>
       <c r="W156" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12346,13 +12313,13 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E157">
         <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G157">
         <v>69</v>
@@ -12403,7 +12370,7 @@
         <v>0.108</v>
       </c>
       <c r="W157" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12417,13 +12384,13 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E158">
         <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G158">
         <v>22</v>
@@ -12474,7 +12441,7 @@
         <v>0.044</v>
       </c>
       <c r="W158" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12488,13 +12455,13 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E159">
         <v>22</v>
       </c>
       <c r="F159" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -12545,7 +12512,7 @@
         <v>0.054</v>
       </c>
       <c r="W159" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12559,13 +12526,13 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E160">
         <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -12616,7 +12583,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="W160" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12630,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E161">
         <v>22</v>
       </c>
       <c r="F161" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G161">
         <v>90.5</v>
@@ -12687,7 +12654,7 @@
         <v>0.14</v>
       </c>
       <c r="W161" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12701,13 +12668,13 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E162">
         <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G162">
         <v>3.5</v>
@@ -12755,7 +12722,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="W162" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12769,13 +12736,13 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E163">
         <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -12826,7 +12793,7 @@
         <v>0.107</v>
       </c>
       <c r="W163" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12840,64 +12807,64 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E164">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G164">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H164">
-        <v>835</v>
+        <v>96</v>
       </c>
       <c r="I164">
-        <v>980</v>
+        <v>98</v>
       </c>
       <c r="J164">
-        <v>0.852</v>
+        <v>0.98</v>
       </c>
       <c r="K164">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L164">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="M164">
-        <v>25.6</v>
+        <v>23.4</v>
       </c>
       <c r="N164">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="O164">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="P164">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="R164">
-        <v>0.52</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="S164">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="T164">
-        <v>0.765</v>
+        <v>0.592</v>
       </c>
       <c r="U164">
-        <v>14.4</v>
+        <v>10.4</v>
       </c>
       <c r="V164">
-        <v>0.242</v>
+        <v>0.163</v>
       </c>
       <c r="W164" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12911,1078 +12878,1078 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E165">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F165" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="G165">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H165">
-        <v>647</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>980</v>
+        <v>98</v>
       </c>
       <c r="J165">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="K165">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L165">
-        <v>39.5</v>
+        <v>33.9</v>
       </c>
       <c r="M165">
-        <v>26.1</v>
+        <v>21</v>
       </c>
       <c r="N165">
-        <v>13</v>
+        <v>10.3</v>
       </c>
       <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165">
+        <v>0.3</v>
+      </c>
+      <c r="Q165">
         <v>3.5</v>
       </c>
-      <c r="P165">
-        <v>1.8</v>
-      </c>
-      <c r="Q165">
-        <v>4.2</v>
-      </c>
       <c r="R165">
-        <v>0.529</v>
+        <v>0.511</v>
       </c>
       <c r="S165">
         <v>0</v>
       </c>
       <c r="T165">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="U165">
-        <v>15.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V165">
-        <v>0.234</v>
+        <v>0.148</v>
       </c>
       <c r="W165" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E166">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G166">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H166">
-        <v>565</v>
+        <v>53</v>
       </c>
       <c r="I166">
-        <v>980</v>
+        <v>101</v>
       </c>
       <c r="J166">
-        <v>0.577</v>
+        <v>0.525</v>
       </c>
       <c r="K166">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L166">
-        <v>39.3</v>
+        <v>32.1</v>
       </c>
       <c r="M166">
-        <v>32.6</v>
+        <v>17.5</v>
       </c>
       <c r="N166">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="O166">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q166">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="R166">
-        <v>0.495</v>
+        <v>0.552</v>
       </c>
       <c r="S166">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="T166">
-        <v>0.837</v>
+        <v>0.532</v>
       </c>
       <c r="U166">
-        <v>17.2</v>
+        <v>7.8</v>
       </c>
       <c r="V166">
-        <v>0.27</v>
+        <v>0.154</v>
       </c>
       <c r="W166" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:23">
       <c r="A167" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E167">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G167">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H167">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="I167">
-        <v>980</v>
+        <v>101</v>
       </c>
       <c r="J167">
-        <v>0.366</v>
+        <v>0.465</v>
       </c>
       <c r="K167">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L167">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="M167">
-        <v>24.2</v>
+        <v>16</v>
       </c>
       <c r="N167">
-        <v>12.1</v>
+        <v>5.4</v>
       </c>
       <c r="O167">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="P167">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q167">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="R167">
-        <v>0.503</v>
+        <v>0.466</v>
       </c>
       <c r="S167">
-        <v>0.143</v>
+        <v>0.267</v>
       </c>
       <c r="T167">
-        <v>0.719</v>
+        <v>0.742</v>
       </c>
       <c r="U167">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="V167">
-        <v>0.17</v>
+        <v>0.112</v>
       </c>
       <c r="W167" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:23">
       <c r="A168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E168">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F168" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>980</v>
+        <v>101</v>
       </c>
       <c r="J168">
-        <v>0.055</v>
+        <v>0.01</v>
       </c>
       <c r="K168">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L168">
-        <v>37.3</v>
+        <v>36.7</v>
       </c>
       <c r="M168">
-        <v>29.9</v>
+        <v>19.2</v>
       </c>
       <c r="N168">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R168">
-        <v>0.468</v>
+        <v>0.406</v>
       </c>
       <c r="S168">
-        <v>0.38</v>
+        <v>0.284</v>
       </c>
       <c r="T168">
-        <v>0.828</v>
+        <v>0.699</v>
       </c>
       <c r="U168">
-        <v>10.5</v>
+        <v>0.9</v>
       </c>
       <c r="V168">
-        <v>0.191</v>
+        <v>0.014</v>
       </c>
       <c r="W168" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="1">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169">
+        <v>22</v>
+      </c>
+      <c r="F169" t="s">
+        <v>255</v>
+      </c>
+      <c r="G169">
+        <v>43</v>
+      </c>
+      <c r="H169">
+        <v>43</v>
+      </c>
+      <c r="I169">
+        <v>105</v>
+      </c>
+      <c r="J169">
+        <v>0.41</v>
+      </c>
+      <c r="K169">
+        <v>70</v>
+      </c>
+      <c r="L169">
+        <v>38.3</v>
+      </c>
+      <c r="M169">
+        <v>19.9</v>
+      </c>
+      <c r="N169">
+        <v>6.4</v>
+      </c>
+      <c r="O169">
         <v>5</v>
       </c>
-      <c r="B169">
-        <v>6</v>
-      </c>
-      <c r="C169">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E169">
-        <v>27</v>
-      </c>
-      <c r="F169" t="s">
-        <v>247</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>33</v>
-      </c>
-      <c r="I169">
-        <v>980</v>
-      </c>
-      <c r="J169">
-        <v>0.034</v>
-      </c>
-      <c r="K169">
-        <v>82</v>
-      </c>
-      <c r="L169">
-        <v>39.2</v>
-      </c>
-      <c r="M169">
-        <v>23.4</v>
-      </c>
-      <c r="N169">
-        <v>11.7</v>
-      </c>
-      <c r="O169">
-        <v>3.7</v>
-      </c>
       <c r="P169">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q169">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="R169">
-        <v>0.501</v>
+        <v>0.477</v>
       </c>
       <c r="S169">
-        <v>0.176</v>
+        <v>0.148</v>
       </c>
       <c r="T169">
         <v>0.732</v>
       </c>
       <c r="U169">
-        <v>13.2</v>
+        <v>5.4</v>
       </c>
       <c r="V169">
-        <v>0.197</v>
+        <v>0.097</v>
       </c>
       <c r="W169" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:23">
       <c r="A170" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B170">
-        <v>7</v>
-      </c>
-      <c r="C170">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E170">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I170">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="J170">
-        <v>0.031</v>
+        <v>0.41</v>
       </c>
       <c r="K170">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L170">
-        <v>37.9</v>
+        <v>33.8</v>
       </c>
       <c r="M170">
-        <v>23.4</v>
+        <v>11.7</v>
       </c>
       <c r="N170">
-        <v>13.9</v>
+        <v>5.4</v>
       </c>
       <c r="O170">
+        <v>7.7</v>
+      </c>
+      <c r="P170">
         <v>1.9</v>
       </c>
-      <c r="P170">
-        <v>0.7</v>
-      </c>
       <c r="Q170">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="R170">
-        <v>0.5620000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="T170">
-        <v>0.592</v>
+        <v>0.698</v>
       </c>
       <c r="U170">
-        <v>10.4</v>
+        <v>3.7</v>
       </c>
       <c r="V170">
-        <v>0.163</v>
+        <v>0.066</v>
       </c>
       <c r="W170" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:23">
       <c r="A171" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B171">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E171">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I171">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="J171">
-        <v>0.01</v>
+        <v>0.143</v>
       </c>
       <c r="K171">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L171">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="M171">
-        <v>27</v>
+        <v>21.9</v>
       </c>
       <c r="N171">
-        <v>11.2</v>
+        <v>6.4</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="P171">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R171">
-        <v>0.552</v>
+        <v>0.451</v>
       </c>
       <c r="S171">
-        <v>0.2</v>
+        <v>0.321</v>
       </c>
       <c r="T171">
-        <v>0.74</v>
+        <v>0.796</v>
       </c>
       <c r="U171">
-        <v>15.4</v>
+        <v>3.2</v>
       </c>
       <c r="V171">
-        <v>0.238</v>
+        <v>0.053</v>
       </c>
       <c r="W171" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:23">
       <c r="A172" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B172">
-        <v>9</v>
-      </c>
-      <c r="C172" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E172">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="J172">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="K172">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L172">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="M172">
-        <v>18.2</v>
+        <v>14</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="O172">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P172">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Q172">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="R172">
-        <v>0.484</v>
+        <v>0.46</v>
       </c>
       <c r="S172">
-        <v>0.416</v>
+        <v>0.37</v>
       </c>
       <c r="T172">
-        <v>0.948</v>
+        <v>0.722</v>
       </c>
       <c r="U172">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="V172">
-        <v>0.197</v>
+        <v>0.122</v>
       </c>
       <c r="W172" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:23">
       <c r="A173" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E173">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="J173">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="K173">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L173">
-        <v>37.9</v>
+        <v>28.6</v>
       </c>
       <c r="M173">
-        <v>20.2</v>
+        <v>13.2</v>
       </c>
       <c r="N173">
-        <v>10.2</v>
+        <v>7.5</v>
       </c>
       <c r="O173">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="P173">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Q173">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="R173">
-        <v>0.571</v>
+        <v>0.511</v>
       </c>
       <c r="S173">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T173">
-        <v>0.795</v>
+        <v>0.636</v>
       </c>
       <c r="U173">
-        <v>12.7</v>
+        <v>5.3</v>
       </c>
       <c r="V173">
-        <v>0.226</v>
+        <v>0.112</v>
       </c>
       <c r="W173" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:23">
       <c r="A174" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F174" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>980</v>
+        <v>105</v>
       </c>
       <c r="J174">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="K174">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="L174">
-        <v>34.1</v>
+        <v>36.1</v>
       </c>
       <c r="M174">
-        <v>19.9</v>
+        <v>17</v>
       </c>
       <c r="N174">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="O174">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="P174">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q174">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="R174">
-        <v>0.429</v>
+        <v>0.489</v>
       </c>
       <c r="S174">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="T174">
-        <v>0.839</v>
+        <v>0.664</v>
       </c>
       <c r="U174">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="V174">
-        <v>0.171</v>
+        <v>0.057</v>
       </c>
       <c r="W174" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:23">
       <c r="A175" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B175">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E175">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I175">
-        <v>980</v>
+        <v>113</v>
       </c>
       <c r="J175">
-        <v>0.001</v>
+        <v>0.673</v>
       </c>
       <c r="K175">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L175">
-        <v>40.2</v>
+        <v>40.9</v>
       </c>
       <c r="M175">
-        <v>23.5</v>
+        <v>19</v>
       </c>
       <c r="N175">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q175">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R175">
-        <v>0.466</v>
+        <v>0.426</v>
       </c>
       <c r="S175">
-        <v>0.375</v>
+        <v>0.395</v>
       </c>
       <c r="T175">
-        <v>0.864</v>
+        <v>0.797</v>
       </c>
       <c r="U175">
-        <v>9.1</v>
+        <v>4.3</v>
       </c>
       <c r="V175">
-        <v>0.141</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="W175" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:23">
       <c r="A176" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B176">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E176">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I176">
-        <v>980</v>
+        <v>113</v>
       </c>
       <c r="J176">
-        <v>0.001</v>
+        <v>0.15</v>
       </c>
       <c r="K176">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L176">
-        <v>33.1</v>
+        <v>23.8</v>
       </c>
       <c r="M176">
-        <v>17.8</v>
+        <v>14.5</v>
       </c>
       <c r="N176">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P176">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q176">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="R176">
-        <v>0.492</v>
+        <v>0.545</v>
       </c>
       <c r="S176">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="T176">
-        <v>0.712</v>
+        <v>0.757</v>
       </c>
       <c r="U176">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="V176">
-        <v>0.169</v>
+        <v>0.233</v>
       </c>
       <c r="W176" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:23">
       <c r="A177" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B177">
-        <v>14</v>
-      </c>
-      <c r="C177" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F177" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I177">
-        <v>980</v>
+        <v>113</v>
       </c>
       <c r="J177">
-        <v>0.001</v>
+        <v>0.133</v>
       </c>
       <c r="K177">
         <v>82</v>
       </c>
       <c r="L177">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="M177">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="N177">
-        <v>2.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O177">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P177">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="Q177">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="R177">
-        <v>0.486</v>
+        <v>0.458</v>
       </c>
       <c r="S177">
-        <v>0.385</v>
+        <v>0.357</v>
       </c>
       <c r="T177">
-        <v>0.798</v>
+        <v>0.773</v>
       </c>
       <c r="U177">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="V177">
-        <v>0.177</v>
+        <v>0.116</v>
       </c>
       <c r="W177" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:23">
       <c r="A178" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G178">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J178">
-        <v>0.525</v>
+        <v>0.018</v>
       </c>
       <c r="K178">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L178">
-        <v>32.1</v>
+        <v>39.2</v>
       </c>
       <c r="M178">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="N178">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q178">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="R178">
-        <v>0.552</v>
+        <v>0.476</v>
       </c>
       <c r="S178">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="T178">
-        <v>0.532</v>
+        <v>0.749</v>
       </c>
       <c r="U178">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="V178">
-        <v>0.154</v>
+        <v>0.095</v>
       </c>
       <c r="W178" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:23">
       <c r="A179" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179">
+        <v>21</v>
+      </c>
+      <c r="F179" t="s">
+        <v>242</v>
+      </c>
+      <c r="G179">
         <v>2</v>
       </c>
-      <c r="C179">
+      <c r="H179">
         <v>2</v>
       </c>
-      <c r="D179" t="s">
-        <v>209</v>
-      </c>
-      <c r="E179">
-        <v>22</v>
-      </c>
-      <c r="F179" t="s">
-        <v>236</v>
-      </c>
-      <c r="G179">
-        <v>47</v>
-      </c>
-      <c r="H179">
-        <v>47</v>
-      </c>
       <c r="I179">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J179">
-        <v>0.465</v>
+        <v>0.018</v>
       </c>
       <c r="K179">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L179">
-        <v>36.8</v>
+        <v>37.5</v>
       </c>
       <c r="M179">
-        <v>16</v>
+        <v>19.2</v>
       </c>
       <c r="N179">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="O179">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="P179">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="Q179">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="R179">
-        <v>0.466</v>
+        <v>0.414</v>
       </c>
       <c r="S179">
-        <v>0.267</v>
+        <v>0.318</v>
       </c>
       <c r="T179">
-        <v>0.742</v>
+        <v>0.747</v>
       </c>
       <c r="U179">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="V179">
-        <v>0.112</v>
+        <v>0.021</v>
       </c>
       <c r="W179" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:23">
       <c r="A180" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E180">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F180" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -13991,49 +13958,49 @@
         <v>1</v>
       </c>
       <c r="I180">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J180">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K180">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L180">
-        <v>36.7</v>
+        <v>28.7</v>
       </c>
       <c r="M180">
-        <v>19.2</v>
+        <v>10.4</v>
       </c>
       <c r="N180">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="P180">
         <v>1.1</v>
       </c>
       <c r="Q180">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="R180">
-        <v>0.406</v>
+        <v>0.491</v>
       </c>
       <c r="S180">
-        <v>0.284</v>
+        <v>0.286</v>
       </c>
       <c r="T180">
-        <v>0.699</v>
+        <v>0.705</v>
       </c>
       <c r="U180">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="V180">
-        <v>0.014</v>
+        <v>0.092</v>
       </c>
       <c r="W180" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14047,64 +14014,64 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E181">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G181">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>901</v>
+        <v>44</v>
       </c>
       <c r="I181">
-        <v>1050</v>
+        <v>115</v>
       </c>
       <c r="J181">
-        <v>0.858</v>
+        <v>0.383</v>
       </c>
       <c r="K181">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L181">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M181">
-        <v>27.6</v>
+        <v>23.5</v>
       </c>
       <c r="N181">
-        <v>10.8</v>
+        <v>4.1</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="P181">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="R181">
-        <v>0.53</v>
+        <v>0.416</v>
       </c>
       <c r="S181">
-        <v>0.3</v>
+        <v>0.341</v>
       </c>
       <c r="T181">
-        <v>0.774</v>
+        <v>0.702</v>
       </c>
       <c r="U181">
-        <v>17.5</v>
+        <v>4.1</v>
       </c>
       <c r="V181">
-        <v>0.273</v>
+        <v>0.065</v>
       </c>
       <c r="W181" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14118,64 +14085,64 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E182">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F182" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G182">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>605</v>
+        <v>35</v>
       </c>
       <c r="I182">
-        <v>1050</v>
+        <v>115</v>
       </c>
       <c r="J182">
-        <v>0.576</v>
+        <v>0.304</v>
       </c>
       <c r="K182">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L182">
-        <v>37</v>
+        <v>34.7</v>
       </c>
       <c r="M182">
-        <v>29.3</v>
+        <v>15.8</v>
       </c>
       <c r="N182">
-        <v>11.4</v>
+        <v>2.7</v>
       </c>
       <c r="O182">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="P182">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q182">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="R182">
-        <v>0.583</v>
+        <v>0.408</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="T182">
-        <v>0.533</v>
+        <v>0.727</v>
       </c>
       <c r="U182">
-        <v>14</v>
+        <v>3.7</v>
       </c>
       <c r="V182">
-        <v>0.23</v>
+        <v>0.077</v>
       </c>
       <c r="W182" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14189,64 +14156,64 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E183">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F183" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G183">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H183">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="I183">
-        <v>1050</v>
+        <v>115</v>
       </c>
       <c r="J183">
-        <v>0.507</v>
+        <v>0.217</v>
       </c>
       <c r="K183">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L183">
-        <v>38.1</v>
+        <v>35</v>
       </c>
       <c r="M183">
-        <v>26.7</v>
+        <v>18.7</v>
       </c>
       <c r="N183">
-        <v>10.6</v>
+        <v>6.9</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="P183">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="Q183">
         <v>1</v>
       </c>
       <c r="R183">
-        <v>0.536</v>
+        <v>0.453</v>
       </c>
       <c r="S183">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
       <c r="T183">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="U183">
-        <v>13.8</v>
+        <v>2.9</v>
       </c>
       <c r="V183">
-        <v>0.212</v>
+        <v>0.049</v>
       </c>
       <c r="W183" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14260,64 +14227,64 @@
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E184">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F184" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H184">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="I184">
-        <v>1050</v>
+        <v>115</v>
       </c>
       <c r="J184">
-        <v>0.219</v>
+        <v>0.052</v>
       </c>
       <c r="K184">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L184">
-        <v>37</v>
+        <v>36.2</v>
       </c>
       <c r="M184">
-        <v>23.9</v>
+        <v>17.5</v>
       </c>
       <c r="N184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O184">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P184">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="Q184">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="R184">
-        <v>0.503</v>
+        <v>0.425</v>
       </c>
       <c r="S184">
-        <v>0.286</v>
+        <v>0.327</v>
       </c>
       <c r="T184">
-        <v>0.75</v>
+        <v>0.631</v>
       </c>
       <c r="U184">
-        <v>9.6</v>
+        <v>1.7</v>
       </c>
       <c r="V184">
-        <v>0.157</v>
+        <v>0.027</v>
       </c>
       <c r="W184" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14331,2194 +14298,703 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E185">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H185">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="I185">
-        <v>1050</v>
+        <v>115</v>
       </c>
       <c r="J185">
-        <v>0.14</v>
+        <v>0.043</v>
       </c>
       <c r="K185">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L185">
-        <v>39.6</v>
+        <v>36.7</v>
       </c>
       <c r="M185">
-        <v>27.8</v>
+        <v>16.4</v>
       </c>
       <c r="N185">
-        <v>10.8</v>
+        <v>3.9</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q185">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="R185">
-        <v>0.517</v>
+        <v>0.426</v>
       </c>
       <c r="S185">
-        <v>0.188</v>
+        <v>0.377</v>
       </c>
       <c r="T185">
-        <v>0.756</v>
+        <v>0.771</v>
       </c>
       <c r="U185">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="V185">
-        <v>0.181</v>
+        <v>0.11</v>
       </c>
       <c r="W185" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:23">
       <c r="A186" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E186">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="H186">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I186">
-        <v>1050</v>
+        <v>116</v>
       </c>
       <c r="J186">
-        <v>0.091</v>
+        <v>0.974</v>
       </c>
       <c r="K186">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L186">
-        <v>35</v>
+        <v>39.1</v>
       </c>
       <c r="M186">
-        <v>23</v>
+        <v>21.1</v>
       </c>
       <c r="N186">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="O186">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="P186">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q186">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="R186">
-        <v>0.486</v>
+        <v>0.549</v>
       </c>
       <c r="S186">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="T186">
-        <v>0.748</v>
+        <v>0.662</v>
       </c>
       <c r="U186">
-        <v>10.6</v>
+        <v>12.8</v>
       </c>
       <c r="V186">
-        <v>0.214</v>
+        <v>0.192</v>
       </c>
       <c r="W186" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:23">
       <c r="A187" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B187">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E187">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1050</v>
+        <v>116</v>
       </c>
       <c r="J187">
-        <v>0.079</v>
+        <v>0.026</v>
       </c>
       <c r="K187">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="L187">
-        <v>38.2</v>
+        <v>37.5</v>
       </c>
       <c r="M187">
-        <v>21.4</v>
+        <v>19.7</v>
       </c>
       <c r="N187">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="O187">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="P187">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="Q187">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="R187">
-        <v>0.48</v>
+        <v>0.426</v>
       </c>
       <c r="S187">
-        <v>0.345</v>
+        <v>0.308</v>
       </c>
       <c r="T187">
-        <v>0.716</v>
+        <v>0.846</v>
       </c>
       <c r="U187">
-        <v>11.8</v>
+        <v>4.8</v>
       </c>
       <c r="V187">
-        <v>0.188</v>
+        <v>0.098</v>
       </c>
       <c r="W187" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:23">
       <c r="A188" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E188">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="H188">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I188">
-        <v>1050</v>
+        <v>118</v>
       </c>
       <c r="J188">
-        <v>0.045</v>
+        <v>0.958</v>
       </c>
       <c r="K188">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="L188">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="M188">
-        <v>14.7</v>
+        <v>18.3</v>
       </c>
       <c r="N188">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="O188">
-        <v>12.3</v>
+        <v>3</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="Q188">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="R188">
-        <v>0.542</v>
+        <v>0.45</v>
       </c>
       <c r="S188">
-        <v>0.449</v>
+        <v>0.288</v>
       </c>
       <c r="T188">
-        <v>0.804</v>
+        <v>0.761</v>
       </c>
       <c r="U188">
-        <v>13.9</v>
+        <v>5</v>
       </c>
       <c r="V188">
-        <v>0.233</v>
+        <v>0.136</v>
       </c>
       <c r="W188" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:23">
       <c r="A189" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B189">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E189">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H189">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>1050</v>
+        <v>118</v>
       </c>
       <c r="J189">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="K189">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="L189">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="M189">
-        <v>20.6</v>
+        <v>12.8</v>
       </c>
       <c r="N189">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O189">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q189">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>0.509</v>
+        <v>0.374</v>
       </c>
       <c r="S189">
-        <v>0.302</v>
+        <v>0.31</v>
       </c>
       <c r="T189">
-        <v>0.716</v>
+        <v>0.752</v>
       </c>
       <c r="U189">
-        <v>11.7</v>
+        <v>2.1</v>
       </c>
       <c r="V189">
-        <v>0.187</v>
+        <v>0.055</v>
       </c>
       <c r="W189" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:23">
       <c r="A190" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E190">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F190" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1050</v>
+        <v>118</v>
       </c>
       <c r="J190">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="K190">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L190">
-        <v>37.7</v>
+        <v>34</v>
       </c>
       <c r="M190">
-        <v>20.9</v>
+        <v>16.5</v>
       </c>
       <c r="N190">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="O190">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="P190">
         <v>1.7</v>
       </c>
       <c r="Q190">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R190">
-        <v>0.512</v>
+        <v>0.439</v>
       </c>
       <c r="S190">
-        <v>0.349</v>
+        <v>0.412</v>
       </c>
       <c r="T190">
-        <v>0.769</v>
+        <v>0.713</v>
       </c>
       <c r="U190">
-        <v>10.7</v>
+        <v>4.9</v>
       </c>
       <c r="V190">
-        <v>0.177</v>
+        <v>0.144</v>
       </c>
       <c r="W190" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:23">
       <c r="A191" s="1">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" t="s">
+        <v>220</v>
+      </c>
+      <c r="E191">
+        <v>20</v>
+      </c>
+      <c r="F191" t="s">
+        <v>239</v>
+      </c>
+      <c r="G191">
+        <v>58</v>
+      </c>
+      <c r="H191">
+        <v>58</v>
+      </c>
+      <c r="I191">
+        <v>121</v>
+      </c>
+      <c r="J191">
+        <v>0.479</v>
+      </c>
+      <c r="K191">
+        <v>81</v>
+      </c>
+      <c r="L191">
+        <v>37</v>
+      </c>
+      <c r="M191">
+        <v>20.1</v>
+      </c>
+      <c r="N191">
         <v>10</v>
       </c>
-      <c r="B191">
-        <v>11</v>
-      </c>
-      <c r="C191">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s">
-        <v>196</v>
-      </c>
-      <c r="E191">
-        <v>31</v>
-      </c>
-      <c r="F191" t="s">
-        <v>251</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>12</v>
-      </c>
-      <c r="I191">
-        <v>1050</v>
-      </c>
-      <c r="J191">
-        <v>0.011</v>
-      </c>
-      <c r="K191">
-        <v>17</v>
-      </c>
-      <c r="L191">
-        <v>39.3</v>
-      </c>
-      <c r="M191">
-        <v>26.9</v>
-      </c>
-      <c r="N191">
-        <v>6.9</v>
-      </c>
       <c r="O191">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="P191">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Q191">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="R191">
-        <v>0.411</v>
+        <v>0.482</v>
       </c>
       <c r="S191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T191">
-        <v>0.801</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="U191">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="V191">
-        <v>0.167</v>
+        <v>0.121</v>
       </c>
       <c r="W191" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="1:23">
       <c r="A192" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B192">
-        <v>12</v>
-      </c>
-      <c r="C192">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>30</v>
       </c>
       <c r="D192" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E192">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H192">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I192">
-        <v>1050</v>
+        <v>121</v>
       </c>
       <c r="J192">
-        <v>0.008999999999999999</v>
+        <v>0.479</v>
       </c>
       <c r="K192">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L192">
-        <v>32</v>
+        <v>36.1</v>
       </c>
       <c r="M192">
-        <v>7.1</v>
+        <v>18</v>
       </c>
       <c r="N192">
-        <v>16.8</v>
+        <v>5.3</v>
       </c>
       <c r="O192">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="P192">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R192">
-        <v>0.571</v>
+        <v>0.445</v>
       </c>
       <c r="S192">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="T192">
-        <v>0.676</v>
+        <v>0.786</v>
       </c>
       <c r="U192">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="V192">
-        <v>0.178</v>
+        <v>0.111</v>
       </c>
       <c r="W192" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="1:23">
       <c r="A193" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B193">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E193">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F193" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H193">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>1050</v>
+        <v>121</v>
       </c>
       <c r="J193">
-        <v>0.007</v>
+        <v>0.025</v>
       </c>
       <c r="K193">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L193">
-        <v>33.8</v>
+        <v>36.4</v>
       </c>
       <c r="M193">
-        <v>11.7</v>
+        <v>16.6</v>
       </c>
       <c r="N193">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="O193">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="P193">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Q193">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="R193">
-        <v>0.385</v>
+        <v>0.438</v>
       </c>
       <c r="S193">
-        <v>0.272</v>
+        <v>0.36</v>
       </c>
       <c r="T193">
-        <v>0.698</v>
+        <v>0.719</v>
       </c>
       <c r="U193">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="V193">
-        <v>0.066</v>
+        <v>0.055</v>
       </c>
       <c r="W193" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" spans="1:23">
       <c r="A194" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E194">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>1050</v>
+        <v>121</v>
       </c>
       <c r="J194">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="K194">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L194">
-        <v>35.9</v>
+        <v>25.5</v>
       </c>
       <c r="M194">
-        <v>21.8</v>
+        <v>11.1</v>
       </c>
       <c r="N194">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="O194">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="P194">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="Q194">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R194">
-        <v>0.461</v>
+        <v>0.449</v>
       </c>
       <c r="S194">
-        <v>0.36</v>
+        <v>0.204</v>
       </c>
       <c r="T194">
-        <v>0.824</v>
+        <v>0.774</v>
       </c>
       <c r="U194">
-        <v>11.7</v>
+        <v>5.3</v>
       </c>
       <c r="V194">
-        <v>0.206</v>
+        <v>0.122</v>
       </c>
       <c r="W194" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
-      <c r="A195" s="1">
-        <v>14</v>
-      </c>
-      <c r="B195">
-        <v>15</v>
-      </c>
-      <c r="C195">
-        <v>15</v>
-      </c>
-      <c r="D195" t="s">
-        <v>215</v>
-      </c>
-      <c r="E195">
-        <v>25</v>
-      </c>
-      <c r="F195" t="s">
-        <v>269</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195">
-        <v>1050</v>
-      </c>
-      <c r="J195">
-        <v>0.001</v>
-      </c>
-      <c r="K195">
-        <v>58</v>
-      </c>
-      <c r="L195">
-        <v>35</v>
-      </c>
-      <c r="M195">
-        <v>21.7</v>
-      </c>
-      <c r="N195">
-        <v>8</v>
-      </c>
-      <c r="O195">
-        <v>1.8</v>
-      </c>
-      <c r="P195">
-        <v>1</v>
-      </c>
-      <c r="Q195">
-        <v>0.3</v>
-      </c>
-      <c r="R195">
-        <v>0.509</v>
-      </c>
-      <c r="S195">
-        <v>0.397</v>
-      </c>
-      <c r="T195">
-        <v>0.716</v>
-      </c>
-      <c r="U195">
-        <v>5.2</v>
-      </c>
-      <c r="V195">
-        <v>0.123</v>
-      </c>
-      <c r="W195" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23">
-      <c r="A196" s="1">
-        <v>0</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196" t="s">
-        <v>216</v>
-      </c>
-      <c r="E196">
-        <v>22</v>
-      </c>
-      <c r="F196" t="s">
-        <v>240</v>
-      </c>
-      <c r="G196">
-        <v>76</v>
-      </c>
-      <c r="H196">
-        <v>76</v>
-      </c>
-      <c r="I196">
-        <v>113</v>
-      </c>
-      <c r="J196">
-        <v>0.673</v>
-      </c>
-      <c r="K196">
-        <v>70</v>
-      </c>
-      <c r="L196">
-        <v>40.9</v>
-      </c>
-      <c r="M196">
-        <v>19</v>
-      </c>
-      <c r="N196">
-        <v>4</v>
-      </c>
-      <c r="O196">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="P196">
-        <v>1.4</v>
-      </c>
-      <c r="Q196">
-        <v>0.3</v>
-      </c>
-      <c r="R196">
-        <v>0.426</v>
-      </c>
-      <c r="S196">
-        <v>0.395</v>
-      </c>
-      <c r="T196">
-        <v>0.797</v>
-      </c>
-      <c r="U196">
-        <v>4.3</v>
-      </c>
-      <c r="V196">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="W196" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
-      <c r="A197" s="1">
-        <v>1</v>
-      </c>
-      <c r="B197">
-        <v>2</v>
-      </c>
-      <c r="C197">
-        <v>2</v>
-      </c>
-      <c r="D197" t="s">
-        <v>217</v>
-      </c>
-      <c r="E197">
-        <v>31</v>
-      </c>
-      <c r="F197" t="s">
-        <v>260</v>
-      </c>
-      <c r="G197">
-        <v>17</v>
-      </c>
-      <c r="H197">
-        <v>17</v>
-      </c>
-      <c r="I197">
-        <v>113</v>
-      </c>
-      <c r="J197">
-        <v>0.15</v>
-      </c>
-      <c r="K197">
-        <v>73</v>
-      </c>
-      <c r="L197">
-        <v>23.8</v>
-      </c>
-      <c r="M197">
-        <v>14.5</v>
-      </c>
-      <c r="N197">
-        <v>8.1</v>
-      </c>
-      <c r="O197">
-        <v>1.8</v>
-      </c>
-      <c r="P197">
-        <v>0.9</v>
-      </c>
-      <c r="Q197">
-        <v>1.1</v>
-      </c>
-      <c r="R197">
-        <v>0.545</v>
-      </c>
-      <c r="S197">
-        <v>0.375</v>
-      </c>
-      <c r="T197">
-        <v>0.757</v>
-      </c>
-      <c r="U197">
-        <v>8.4</v>
-      </c>
-      <c r="V197">
-        <v>0.233</v>
-      </c>
-      <c r="W197" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23">
-      <c r="A198" s="1">
-        <v>2</v>
-      </c>
-      <c r="B198">
-        <v>3</v>
-      </c>
-      <c r="C198">
-        <v>3</v>
-      </c>
-      <c r="D198" t="s">
-        <v>218</v>
-      </c>
-      <c r="E198">
-        <v>20</v>
-      </c>
-      <c r="F198" t="s">
-        <v>238</v>
-      </c>
-      <c r="G198">
-        <v>15</v>
-      </c>
-      <c r="H198">
-        <v>15</v>
-      </c>
-      <c r="I198">
-        <v>113</v>
-      </c>
-      <c r="J198">
-        <v>0.133</v>
-      </c>
-      <c r="K198">
-        <v>82</v>
-      </c>
-      <c r="L198">
-        <v>34.4</v>
-      </c>
-      <c r="M198">
-        <v>15.3</v>
-      </c>
-      <c r="N198">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O198">
-        <v>1</v>
-      </c>
-      <c r="P198">
-        <v>1</v>
-      </c>
-      <c r="Q198">
-        <v>1.6</v>
-      </c>
-      <c r="R198">
-        <v>0.458</v>
-      </c>
-      <c r="S198">
-        <v>0.357</v>
-      </c>
-      <c r="T198">
-        <v>0.773</v>
-      </c>
-      <c r="U198">
-        <v>6.8</v>
-      </c>
-      <c r="V198">
-        <v>0.116</v>
-      </c>
-      <c r="W198" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23">
-      <c r="A199" s="1">
-        <v>3</v>
-      </c>
-      <c r="B199">
-        <v>4</v>
-      </c>
-      <c r="C199" t="s">
-        <v>22</v>
-      </c>
-      <c r="D199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E199">
-        <v>22</v>
-      </c>
-      <c r="F199" t="s">
-        <v>244</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-      <c r="H199">
-        <v>2</v>
-      </c>
-      <c r="I199">
-        <v>113</v>
-      </c>
-      <c r="J199">
-        <v>0.018</v>
-      </c>
-      <c r="K199">
-        <v>82</v>
-      </c>
-      <c r="L199">
-        <v>39.2</v>
-      </c>
-      <c r="M199">
-        <v>15</v>
-      </c>
-      <c r="N199">
-        <v>4.6</v>
-      </c>
-      <c r="O199">
-        <v>3.5</v>
-      </c>
-      <c r="P199">
-        <v>1</v>
-      </c>
-      <c r="Q199">
-        <v>0.4</v>
-      </c>
-      <c r="R199">
-        <v>0.476</v>
-      </c>
-      <c r="S199">
-        <v>0.328</v>
-      </c>
-      <c r="T199">
-        <v>0.749</v>
-      </c>
-      <c r="U199">
-        <v>6.3</v>
-      </c>
-      <c r="V199">
-        <v>0.095</v>
-      </c>
-      <c r="W199" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23">
-      <c r="A200" s="1">
-        <v>4</v>
-      </c>
-      <c r="B200">
-        <v>5</v>
-      </c>
-      <c r="C200" t="s">
-        <v>22</v>
-      </c>
-      <c r="D200" t="s">
-        <v>220</v>
-      </c>
-      <c r="E200">
-        <v>21</v>
-      </c>
-      <c r="F200" t="s">
-        <v>254</v>
-      </c>
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200">
-        <v>2</v>
-      </c>
-      <c r="I200">
-        <v>113</v>
-      </c>
-      <c r="J200">
-        <v>0.018</v>
-      </c>
-      <c r="K200">
-        <v>72</v>
-      </c>
-      <c r="L200">
-        <v>37.5</v>
-      </c>
-      <c r="M200">
-        <v>19.2</v>
-      </c>
-      <c r="N200">
-        <v>3.7</v>
-      </c>
-      <c r="O200">
-        <v>3.9</v>
-      </c>
-      <c r="P200">
-        <v>1.1</v>
-      </c>
-      <c r="Q200">
-        <v>1.1</v>
-      </c>
-      <c r="R200">
-        <v>0.414</v>
-      </c>
-      <c r="S200">
-        <v>0.318</v>
-      </c>
-      <c r="T200">
-        <v>0.747</v>
-      </c>
-      <c r="U200">
-        <v>1.2</v>
-      </c>
-      <c r="V200">
-        <v>0.021</v>
-      </c>
-      <c r="W200" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23">
-      <c r="A201" s="1">
-        <v>5</v>
-      </c>
-      <c r="B201">
-        <v>6</v>
-      </c>
-      <c r="C201">
-        <v>6</v>
-      </c>
-      <c r="D201" t="s">
-        <v>221</v>
-      </c>
-      <c r="E201">
-        <v>19</v>
-      </c>
-      <c r="F201" t="s">
-        <v>261</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-      <c r="I201">
-        <v>113</v>
-      </c>
-      <c r="J201">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K201">
-        <v>80</v>
-      </c>
-      <c r="L201">
-        <v>28.7</v>
-      </c>
-      <c r="M201">
-        <v>10.4</v>
-      </c>
-      <c r="N201">
-        <v>6.3</v>
-      </c>
-      <c r="O201">
-        <v>1.8</v>
-      </c>
-      <c r="P201">
-        <v>1.1</v>
-      </c>
-      <c r="Q201">
-        <v>1.6</v>
-      </c>
-      <c r="R201">
-        <v>0.491</v>
-      </c>
-      <c r="S201">
-        <v>0.286</v>
-      </c>
-      <c r="T201">
-        <v>0.705</v>
-      </c>
-      <c r="U201">
-        <v>4.4</v>
-      </c>
-      <c r="V201">
-        <v>0.092</v>
-      </c>
-      <c r="W201" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23">
-      <c r="A202" s="1">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202" t="s">
-        <v>222</v>
-      </c>
-      <c r="E202">
-        <v>21</v>
-      </c>
-      <c r="F202" t="s">
-        <v>254</v>
-      </c>
-      <c r="G202">
-        <v>44</v>
-      </c>
-      <c r="H202">
-        <v>44</v>
-      </c>
-      <c r="I202">
-        <v>115</v>
-      </c>
-      <c r="J202">
-        <v>0.383</v>
-      </c>
-      <c r="K202">
-        <v>76</v>
-      </c>
-      <c r="L202">
-        <v>40.1</v>
-      </c>
-      <c r="M202">
-        <v>23.5</v>
-      </c>
-      <c r="N202">
-        <v>4.1</v>
-      </c>
-      <c r="O202">
-        <v>7.5</v>
-      </c>
-      <c r="P202">
-        <v>2.1</v>
-      </c>
-      <c r="Q202">
-        <v>0.3</v>
-      </c>
-      <c r="R202">
-        <v>0.416</v>
-      </c>
-      <c r="S202">
-        <v>0.341</v>
-      </c>
-      <c r="T202">
-        <v>0.702</v>
-      </c>
-      <c r="U202">
-        <v>4.1</v>
-      </c>
-      <c r="V202">
-        <v>0.065</v>
-      </c>
-      <c r="W202" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23">
-      <c r="A203" s="1">
-        <v>1</v>
-      </c>
-      <c r="B203">
-        <v>2</v>
-      </c>
-      <c r="C203">
-        <v>2</v>
-      </c>
-      <c r="D203" t="s">
-        <v>223</v>
-      </c>
-      <c r="E203">
-        <v>19</v>
-      </c>
-      <c r="F203" t="s">
-        <v>261</v>
-      </c>
-      <c r="G203">
-        <v>35</v>
-      </c>
-      <c r="H203">
-        <v>35</v>
-      </c>
-      <c r="I203">
-        <v>115</v>
-      </c>
-      <c r="J203">
-        <v>0.304</v>
-      </c>
-      <c r="K203">
-        <v>67</v>
-      </c>
-      <c r="L203">
-        <v>34.7</v>
-      </c>
-      <c r="M203">
-        <v>15.8</v>
-      </c>
-      <c r="N203">
-        <v>2.7</v>
-      </c>
-      <c r="O203">
-        <v>7.8</v>
-      </c>
-      <c r="P203">
-        <v>1</v>
-      </c>
-      <c r="Q203">
-        <v>0.3</v>
-      </c>
-      <c r="R203">
-        <v>0.408</v>
-      </c>
-      <c r="S203">
-        <v>0.354</v>
-      </c>
-      <c r="T203">
-        <v>0.727</v>
-      </c>
-      <c r="U203">
-        <v>3.7</v>
-      </c>
-      <c r="V203">
-        <v>0.077</v>
-      </c>
-      <c r="W203" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
-      <c r="A204" s="1">
-        <v>2</v>
-      </c>
-      <c r="B204">
-        <v>3</v>
-      </c>
-      <c r="C204">
-        <v>3</v>
-      </c>
-      <c r="D204" t="s">
-        <v>224</v>
-      </c>
-      <c r="E204">
-        <v>20</v>
-      </c>
-      <c r="F204" t="s">
-        <v>271</v>
-      </c>
-      <c r="G204">
-        <v>25</v>
-      </c>
-      <c r="H204">
-        <v>25</v>
-      </c>
-      <c r="I204">
-        <v>115</v>
-      </c>
-      <c r="J204">
-        <v>0.217</v>
-      </c>
-      <c r="K204">
-        <v>80</v>
-      </c>
-      <c r="L204">
-        <v>35</v>
-      </c>
-      <c r="M204">
-        <v>18.7</v>
-      </c>
-      <c r="N204">
-        <v>6.9</v>
-      </c>
-      <c r="O204">
-        <v>2.2</v>
-      </c>
-      <c r="P204">
-        <v>1</v>
-      </c>
-      <c r="Q204">
-        <v>1</v>
-      </c>
-      <c r="R204">
-        <v>0.453</v>
-      </c>
-      <c r="S204">
-        <v>0.259</v>
-      </c>
-      <c r="T204">
-        <v>0.746</v>
-      </c>
-      <c r="U204">
-        <v>2.9</v>
-      </c>
-      <c r="V204">
-        <v>0.049</v>
-      </c>
-      <c r="W204" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23">
-      <c r="A205" s="1">
-        <v>3</v>
-      </c>
-      <c r="B205">
-        <v>4</v>
-      </c>
-      <c r="C205">
-        <v>4</v>
-      </c>
-      <c r="D205" t="s">
-        <v>225</v>
-      </c>
-      <c r="E205">
-        <v>20</v>
-      </c>
-      <c r="F205" t="s">
-        <v>259</v>
-      </c>
-      <c r="G205">
-        <v>6</v>
-      </c>
-      <c r="H205">
-        <v>6</v>
-      </c>
-      <c r="I205">
-        <v>115</v>
-      </c>
-      <c r="J205">
-        <v>0.052</v>
-      </c>
-      <c r="K205">
-        <v>82</v>
-      </c>
-      <c r="L205">
-        <v>36.2</v>
-      </c>
-      <c r="M205">
-        <v>17.5</v>
-      </c>
-      <c r="N205">
-        <v>9</v>
-      </c>
-      <c r="O205">
-        <v>3.2</v>
-      </c>
-      <c r="P205">
-        <v>1.3</v>
-      </c>
-      <c r="Q205">
-        <v>0.6</v>
-      </c>
-      <c r="R205">
-        <v>0.425</v>
-      </c>
-      <c r="S205">
-        <v>0.327</v>
-      </c>
-      <c r="T205">
-        <v>0.631</v>
-      </c>
-      <c r="U205">
-        <v>1.7</v>
-      </c>
-      <c r="V205">
-        <v>0.027</v>
-      </c>
-      <c r="W205" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23">
-      <c r="A206" s="1">
-        <v>4</v>
-      </c>
-      <c r="B206">
-        <v>5</v>
-      </c>
-      <c r="C206">
-        <v>5</v>
-      </c>
-      <c r="D206" t="s">
-        <v>226</v>
-      </c>
-      <c r="E206">
-        <v>22</v>
-      </c>
-      <c r="F206" t="s">
-        <v>237</v>
-      </c>
-      <c r="G206">
-        <v>5</v>
-      </c>
-      <c r="H206">
-        <v>5</v>
-      </c>
-      <c r="I206">
-        <v>115</v>
-      </c>
-      <c r="J206">
-        <v>0.043</v>
-      </c>
-      <c r="K206">
-        <v>82</v>
-      </c>
-      <c r="L206">
-        <v>36.7</v>
-      </c>
-      <c r="M206">
-        <v>16.4</v>
-      </c>
-      <c r="N206">
-        <v>3.9</v>
-      </c>
-      <c r="O206">
-        <v>3</v>
-      </c>
-      <c r="P206">
-        <v>1.9</v>
-      </c>
-      <c r="Q206">
-        <v>0.4</v>
-      </c>
-      <c r="R206">
-        <v>0.426</v>
-      </c>
-      <c r="S206">
-        <v>0.377</v>
-      </c>
-      <c r="T206">
-        <v>0.771</v>
-      </c>
-      <c r="U206">
-        <v>6.9</v>
-      </c>
-      <c r="V206">
-        <v>0.11</v>
-      </c>
-      <c r="W206" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23">
-      <c r="A207" s="1">
-        <v>0</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207" t="s">
-        <v>227</v>
-      </c>
-      <c r="E207">
-        <v>21</v>
-      </c>
-      <c r="F207" t="s">
-        <v>247</v>
-      </c>
-      <c r="G207">
-        <v>113</v>
-      </c>
-      <c r="H207">
-        <v>113</v>
-      </c>
-      <c r="I207">
-        <v>116</v>
-      </c>
-      <c r="J207">
-        <v>0.974</v>
-      </c>
-      <c r="K207">
-        <v>82</v>
-      </c>
-      <c r="L207">
-        <v>39.1</v>
-      </c>
-      <c r="M207">
-        <v>21.1</v>
-      </c>
-      <c r="N207">
-        <v>11.9</v>
-      </c>
-      <c r="O207">
-        <v>2.7</v>
-      </c>
-      <c r="P207">
-        <v>0.7</v>
-      </c>
-      <c r="Q207">
-        <v>2.5</v>
-      </c>
-      <c r="R207">
-        <v>0.549</v>
-      </c>
-      <c r="S207">
-        <v>0</v>
-      </c>
-      <c r="T207">
-        <v>0.662</v>
-      </c>
-      <c r="U207">
-        <v>12.8</v>
-      </c>
-      <c r="V207">
-        <v>0.192</v>
-      </c>
-      <c r="W207" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23">
-      <c r="A208" s="1">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="C208">
-        <v>2</v>
-      </c>
-      <c r="D208" t="s">
-        <v>228</v>
-      </c>
-      <c r="E208">
-        <v>22</v>
-      </c>
-      <c r="F208" t="s">
-        <v>237</v>
-      </c>
-      <c r="G208">
-        <v>3</v>
-      </c>
-      <c r="H208">
-        <v>3</v>
-      </c>
-      <c r="I208">
-        <v>116</v>
-      </c>
-      <c r="J208">
-        <v>0.026</v>
-      </c>
-      <c r="K208">
-        <v>62</v>
-      </c>
-      <c r="L208">
-        <v>37.5</v>
-      </c>
-      <c r="M208">
-        <v>19.7</v>
-      </c>
-      <c r="N208">
-        <v>6.6</v>
-      </c>
-      <c r="O208">
-        <v>1.7</v>
-      </c>
-      <c r="P208">
-        <v>1</v>
-      </c>
-      <c r="Q208">
-        <v>0.4</v>
-      </c>
-      <c r="R208">
-        <v>0.426</v>
-      </c>
-      <c r="S208">
-        <v>0.308</v>
-      </c>
-      <c r="T208">
-        <v>0.846</v>
-      </c>
-      <c r="U208">
-        <v>4.8</v>
-      </c>
-      <c r="V208">
-        <v>0.098</v>
-      </c>
-      <c r="W208" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23">
-      <c r="A209" s="1">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209" t="s">
-        <v>229</v>
-      </c>
-      <c r="E209">
-        <v>22</v>
-      </c>
-      <c r="F209" t="s">
-        <v>240</v>
-      </c>
-      <c r="G209">
-        <v>113</v>
-      </c>
-      <c r="H209">
-        <v>113</v>
-      </c>
-      <c r="I209">
-        <v>118</v>
-      </c>
-      <c r="J209">
-        <v>0.958</v>
-      </c>
-      <c r="K209">
-        <v>50</v>
-      </c>
-      <c r="L209">
-        <v>35.2</v>
-      </c>
-      <c r="M209">
-        <v>18.3</v>
-      </c>
-      <c r="N209">
-        <v>5.7</v>
-      </c>
-      <c r="O209">
-        <v>3</v>
-      </c>
-      <c r="P209">
-        <v>1.1</v>
-      </c>
-      <c r="Q209">
-        <v>1.5</v>
-      </c>
-      <c r="R209">
-        <v>0.45</v>
-      </c>
-      <c r="S209">
-        <v>0.288</v>
-      </c>
-      <c r="T209">
-        <v>0.761</v>
-      </c>
-      <c r="U209">
-        <v>5</v>
-      </c>
-      <c r="V209">
-        <v>0.136</v>
-      </c>
-      <c r="W209" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23">
-      <c r="A210" s="1">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-      <c r="D210" t="s">
-        <v>230</v>
-      </c>
-      <c r="E210">
-        <v>23</v>
-      </c>
-      <c r="F210" t="s">
-        <v>265</v>
-      </c>
-      <c r="G210">
-        <v>3</v>
-      </c>
-      <c r="H210">
-        <v>3</v>
-      </c>
-      <c r="I210">
-        <v>118</v>
-      </c>
-      <c r="J210">
-        <v>0.025</v>
-      </c>
-      <c r="K210">
-        <v>50</v>
-      </c>
-      <c r="L210">
-        <v>36.1</v>
-      </c>
-      <c r="M210">
-        <v>12.8</v>
-      </c>
-      <c r="N210">
-        <v>3.1</v>
-      </c>
-      <c r="O210">
-        <v>6</v>
-      </c>
-      <c r="P210">
-        <v>1.9</v>
-      </c>
-      <c r="Q210">
-        <v>0</v>
-      </c>
-      <c r="R210">
-        <v>0.374</v>
-      </c>
-      <c r="S210">
-        <v>0.31</v>
-      </c>
-      <c r="T210">
-        <v>0.752</v>
-      </c>
-      <c r="U210">
-        <v>2.1</v>
-      </c>
-      <c r="V210">
-        <v>0.055</v>
-      </c>
-      <c r="W210" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23">
-      <c r="A211" s="1">
-        <v>2</v>
-      </c>
-      <c r="B211">
-        <v>3</v>
-      </c>
-      <c r="C211">
-        <v>3</v>
-      </c>
-      <c r="D211" t="s">
-        <v>231</v>
-      </c>
-      <c r="E211">
-        <v>21</v>
-      </c>
-      <c r="F211" t="s">
-        <v>259</v>
-      </c>
-      <c r="G211">
-        <v>2</v>
-      </c>
-      <c r="H211">
-        <v>2</v>
-      </c>
-      <c r="I211">
-        <v>118</v>
-      </c>
-      <c r="J211">
-        <v>0.017</v>
-      </c>
-      <c r="K211">
-        <v>48</v>
-      </c>
-      <c r="L211">
-        <v>34</v>
-      </c>
-      <c r="M211">
-        <v>16.5</v>
-      </c>
-      <c r="N211">
-        <v>6.4</v>
-      </c>
-      <c r="O211">
-        <v>2.4</v>
-      </c>
-      <c r="P211">
-        <v>1.7</v>
-      </c>
-      <c r="Q211">
-        <v>1</v>
-      </c>
-      <c r="R211">
-        <v>0.439</v>
-      </c>
-      <c r="S211">
-        <v>0.412</v>
-      </c>
-      <c r="T211">
-        <v>0.713</v>
-      </c>
-      <c r="U211">
-        <v>4.9</v>
-      </c>
-      <c r="V211">
-        <v>0.144</v>
-      </c>
-      <c r="W211" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23">
-      <c r="A212" s="1">
-        <v>0</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>31</v>
-      </c>
-      <c r="D212" t="s">
-        <v>232</v>
-      </c>
-      <c r="E212">
-        <v>20</v>
-      </c>
-      <c r="F212" t="s">
-        <v>251</v>
-      </c>
-      <c r="G212">
-        <v>58</v>
-      </c>
-      <c r="H212">
-        <v>58</v>
-      </c>
-      <c r="I212">
-        <v>121</v>
-      </c>
-      <c r="J212">
-        <v>0.479</v>
-      </c>
-      <c r="K212">
-        <v>81</v>
-      </c>
-      <c r="L212">
-        <v>37</v>
-      </c>
-      <c r="M212">
-        <v>20.1</v>
-      </c>
-      <c r="N212">
-        <v>10</v>
-      </c>
-      <c r="O212">
-        <v>1.9</v>
-      </c>
-      <c r="P212">
-        <v>0.8</v>
-      </c>
-      <c r="Q212">
-        <v>1.6</v>
-      </c>
-      <c r="R212">
-        <v>0.482</v>
-      </c>
-      <c r="S212">
-        <v>0</v>
-      </c>
-      <c r="T212">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="U212">
-        <v>7.5</v>
-      </c>
-      <c r="V212">
-        <v>0.121</v>
-      </c>
-      <c r="W212" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23">
-      <c r="A213" s="1">
-        <v>1</v>
-      </c>
-      <c r="B213">
-        <v>2</v>
-      </c>
-      <c r="C213" t="s">
-        <v>31</v>
-      </c>
-      <c r="D213" t="s">
-        <v>233</v>
-      </c>
-      <c r="E213">
-        <v>22</v>
-      </c>
-      <c r="F213" t="s">
-        <v>245</v>
-      </c>
-      <c r="G213">
-        <v>58</v>
-      </c>
-      <c r="H213">
-        <v>58</v>
-      </c>
-      <c r="I213">
-        <v>121</v>
-      </c>
-      <c r="J213">
-        <v>0.479</v>
-      </c>
-      <c r="K213">
-        <v>77</v>
-      </c>
-      <c r="L213">
-        <v>36.1</v>
-      </c>
-      <c r="M213">
-        <v>18</v>
-      </c>
-      <c r="N213">
-        <v>5.3</v>
-      </c>
-      <c r="O213">
-        <v>6.6</v>
-      </c>
-      <c r="P213">
-        <v>1.5</v>
-      </c>
-      <c r="Q213">
-        <v>0.4</v>
-      </c>
-      <c r="R213">
-        <v>0.445</v>
-      </c>
-      <c r="S213">
-        <v>0.345</v>
-      </c>
-      <c r="T213">
-        <v>0.786</v>
-      </c>
-      <c r="U213">
-        <v>6.4</v>
-      </c>
-      <c r="V213">
-        <v>0.111</v>
-      </c>
-      <c r="W213" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23">
-      <c r="A214" s="1">
-        <v>2</v>
-      </c>
-      <c r="B214">
-        <v>3</v>
-      </c>
-      <c r="C214">
-        <v>3</v>
-      </c>
-      <c r="D214" t="s">
-        <v>234</v>
-      </c>
-      <c r="E214">
-        <v>20</v>
-      </c>
-      <c r="F214" t="s">
-        <v>239</v>
-      </c>
-      <c r="G214">
-        <v>3</v>
-      </c>
-      <c r="H214">
-        <v>3</v>
-      </c>
-      <c r="I214">
-        <v>121</v>
-      </c>
-      <c r="J214">
-        <v>0.025</v>
-      </c>
-      <c r="K214">
-        <v>76</v>
-      </c>
-      <c r="L214">
-        <v>36.4</v>
-      </c>
-      <c r="M214">
-        <v>16.6</v>
-      </c>
-      <c r="N214">
-        <v>7.8</v>
-      </c>
-      <c r="O214">
-        <v>4.2</v>
-      </c>
-      <c r="P214">
-        <v>1.2</v>
-      </c>
-      <c r="Q214">
-        <v>1.3</v>
-      </c>
-      <c r="R214">
-        <v>0.438</v>
-      </c>
-      <c r="S214">
-        <v>0.36</v>
-      </c>
-      <c r="T214">
-        <v>0.719</v>
-      </c>
-      <c r="U214">
-        <v>3.2</v>
-      </c>
-      <c r="V214">
-        <v>0.055</v>
-      </c>
-      <c r="W214" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23">
-      <c r="A215" s="1">
-        <v>3</v>
-      </c>
-      <c r="B215">
-        <v>4</v>
-      </c>
-      <c r="C215">
-        <v>4</v>
-      </c>
-      <c r="D215" t="s">
-        <v>235</v>
-      </c>
-      <c r="E215">
-        <v>23</v>
-      </c>
-      <c r="F215" t="s">
-        <v>250</v>
-      </c>
-      <c r="G215">
-        <v>2</v>
-      </c>
-      <c r="H215">
-        <v>2</v>
-      </c>
-      <c r="I215">
-        <v>121</v>
-      </c>
-      <c r="J215">
-        <v>0.017</v>
-      </c>
-      <c r="K215">
-        <v>82</v>
-      </c>
-      <c r="L215">
-        <v>25.5</v>
-      </c>
-      <c r="M215">
-        <v>11.1</v>
-      </c>
-      <c r="N215">
-        <v>3.4</v>
-      </c>
-      <c r="O215">
-        <v>5.8</v>
-      </c>
-      <c r="P215">
-        <v>1</v>
-      </c>
-      <c r="Q215">
-        <v>0.2</v>
-      </c>
-      <c r="R215">
-        <v>0.449</v>
-      </c>
-      <c r="S215">
-        <v>0.204</v>
-      </c>
-      <c r="T215">
-        <v>0.774</v>
-      </c>
-      <c r="U215">
-        <v>5.3</v>
-      </c>
-      <c r="V215">
-        <v>0.122</v>
-      </c>
-      <c r="W215" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
